--- a/data.xlsx
+++ b/data.xlsx
@@ -391,7 +391,7 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>1.076808638923026</v>
+        <v>-311.0140164047996</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -405,7 +405,7 @@
         <v>-1</v>
       </c>
       <c r="C3">
-        <v>45.79797922284006</v>
+        <v>47.93576665543328</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -419,7 +419,7 @@
         <v>3.5</v>
       </c>
       <c r="C4">
-        <v>28.64746799514484</v>
+        <v>45.67434478487716</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>16.5</v>
       </c>
       <c r="C5">
-        <v>38.43360070043748</v>
+        <v>50.20695066252448</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -447,7 +447,7 @@
         <v>13.5</v>
       </c>
       <c r="C6">
-        <v>0.4191491438119215</v>
+        <v>-124.9056831711556</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -461,7 +461,7 @@
         <v>17.5</v>
       </c>
       <c r="C7">
-        <v>48.7466616486445</v>
+        <v>50.42177329770627</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -475,7 +475,7 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>50.17519679206857</v>
+        <v>45.91364487333755</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>6.860673304384662</v>
+        <v>17.39730012321301</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>47.62247267528294</v>
+        <v>51.91968933858254</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>2.9143431779395</v>
+        <v>9.889975990560671</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -531,7 +531,7 @@
         <v>16.5</v>
       </c>
       <c r="C12">
-        <v>44.55804970451774</v>
+        <v>52.35389995045815</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -545,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>15.69007760551756</v>
+        <v>46.79428859010714</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -559,7 +559,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>38.63360198367355</v>
+        <v>57.27774523202547</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>4.5</v>
       </c>
       <c r="C15">
-        <v>13.28313977205711</v>
+        <v>49.38085539505631</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -587,7 +587,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>5.243536225857596</v>
+        <v>-122.4677755988029</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -601,7 +601,7 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>4.901799413039114</v>
+        <v>42.07570831441517</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>47.94437906006922</v>
+        <v>49.32266682853091</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>44.8757804760245</v>
+        <v>45.26063042008125</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>4.494534542965638</v>
+        <v>-13.28640650534783</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>12.5</v>
       </c>
       <c r="C21">
-        <v>0.8171940946498353</v>
+        <v>-121.9993281709149</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -671,7 +671,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>8.390905143192327</v>
+        <v>22.8662889493846</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>15.5</v>
       </c>
       <c r="C23">
-        <v>-2.179153621809107</v>
+        <v>-108.2569931704789</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>45.6732256254234</v>
+        <v>46.8523921925017</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -713,7 +713,7 @@
         <v>15.5</v>
       </c>
       <c r="C25">
-        <v>40.85774315956358</v>
+        <v>60.61702603032315</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -727,7 +727,7 @@
         <v>16</v>
       </c>
       <c r="C26">
-        <v>42.04929195381864</v>
+        <v>51.63300157723616</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>15</v>
       </c>
       <c r="C27">
-        <v>35.30470105270706</v>
+        <v>59.15586519565485</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>-2</v>
       </c>
       <c r="C28">
-        <v>49.342471705178</v>
+        <v>18.36776585041913</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>5.5</v>
       </c>
       <c r="C29">
-        <v>7.106728368329456</v>
+        <v>46.12926467831397</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>14.5</v>
       </c>
       <c r="C30">
-        <v>0.01197982509515327</v>
+        <v>-72.44157634709794</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>14.5</v>
       </c>
       <c r="C31">
-        <v>7.77301864507659</v>
+        <v>59.15277353694521</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -811,7 +811,7 @@
         <v>-3</v>
       </c>
       <c r="C32">
-        <v>57.66507498505791</v>
+        <v>-79.78871381382444</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>13.5</v>
       </c>
       <c r="C33">
-        <v>-0.8882107760905882</v>
+        <v>-99.75947280973506</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>6.5</v>
       </c>
       <c r="C34">
-        <v>4.788200461419919</v>
+        <v>44.26166550146135</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>20.50307988615172</v>
+        <v>49.81697102333727</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>15</v>
       </c>
       <c r="C36">
-        <v>-1.238810249017277</v>
+        <v>-131.9139565105916</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>30.73104676165929</v>
+        <v>54.99811143247155</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>12</v>
       </c>
       <c r="C38">
-        <v>1.944067475462489</v>
+        <v>13.66763198550537</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>12</v>
       </c>
       <c r="C39">
-        <v>2.12860847753295</v>
+        <v>-67.01473053971131</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -923,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>35.32825623908026</v>
+        <v>53.91420511088696</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>13</v>
       </c>
       <c r="C41">
-        <v>-0.2660550916823468</v>
+        <v>-97.1634460275306</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>17.5</v>
       </c>
       <c r="C42">
-        <v>51.28911488208865</v>
+        <v>47.30536905539987</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>5</v>
       </c>
       <c r="C43">
-        <v>7.52967873947199</v>
+        <v>41.92775219450182</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>14</v>
       </c>
       <c r="C44">
-        <v>-0.3333680337585747</v>
+        <v>-151.7839972423608</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>7.5</v>
       </c>
       <c r="C45">
-        <v>5.540232538273685</v>
+        <v>46.38078335976608</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>12.5</v>
       </c>
       <c r="C46">
-        <v>4.37821164881187</v>
+        <v>-62.11941701078308</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>-1</v>
       </c>
       <c r="C47">
-        <v>51.51313552876296</v>
+        <v>-2.895023091926632</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>9.5</v>
       </c>
       <c r="C48">
-        <v>7.790414018084491</v>
+        <v>20.76174492033525</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>3.5</v>
       </c>
       <c r="C49">
-        <v>36.47171202151807</v>
+        <v>52.38900447304266</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>16.5</v>
       </c>
       <c r="C50">
-        <v>0.8595292167212421</v>
+        <v>-92.438432591615</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>9.366970244337779</v>
+        <v>30.83164372639654</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>52.76397631899449</v>
+        <v>56.33583442257328</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>6.40162290739778</v>
+        <v>21.33012669146565</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>16.5</v>
       </c>
       <c r="C54">
-        <v>40.61966179391406</v>
+        <v>73.0582712371999</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -1133,7 +1133,7 @@
         <v>7</v>
       </c>
       <c r="C55">
-        <v>5.590897475546072</v>
+        <v>49.36778619415478</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>16</v>
       </c>
       <c r="C56">
-        <v>1.486904743985349</v>
+        <v>-173.2276700694886</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>4.5</v>
       </c>
       <c r="C57">
-        <v>25.4645808527475</v>
+        <v>50.50541930789063</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>11.5</v>
       </c>
       <c r="C58">
-        <v>5.446225277937728</v>
+        <v>21.18276365293279</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>6</v>
       </c>
       <c r="C59">
-        <v>5.836073173358017</v>
+        <v>15.33548104640469</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>17</v>
       </c>
       <c r="C60">
-        <v>43.79588130004234</v>
+        <v>62.29704921123467</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>47.07038956950215</v>
+        <v>46.97959653241813</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>7.497531727867823</v>
+        <v>23.15617064570914</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>8</v>
       </c>
       <c r="C63">
-        <v>11.26824883317703</v>
+        <v>37.82186637114563</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>15.5</v>
       </c>
       <c r="C64">
-        <v>1.413502699482351</v>
+        <v>-69.40944556407797</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>15.5</v>
       </c>
       <c r="C65">
-        <v>7.379819098226818</v>
+        <v>0.6061422608814411</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -1287,7 +1287,7 @@
         <v>15</v>
       </c>
       <c r="C66">
-        <v>2.194284814433146</v>
+        <v>-53.97767549860455</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>-2</v>
       </c>
       <c r="C67">
-        <v>51.27816918399342</v>
+        <v>49.13894489167496</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>10.5</v>
       </c>
       <c r="C68">
-        <v>7.715491590182125</v>
+        <v>17.8461331585742</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>5.5</v>
       </c>
       <c r="C69">
-        <v>9.264989247106456</v>
+        <v>47.1429717702539</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>14.5</v>
       </c>
       <c r="C70">
-        <v>2.39549131296414</v>
+        <v>21.30148986983482</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>14.5</v>
       </c>
       <c r="C71">
-        <v>1.966195363394149</v>
+        <v>-90.31012330572202</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -1371,7 +1371,7 @@
         <v>-3</v>
       </c>
       <c r="C72">
-        <v>59.76628229343611</v>
+        <v>51.03577073084141</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>13.5</v>
       </c>
       <c r="C73">
-        <v>3.239449416142193</v>
+        <v>-34.55527824103726</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>6.5</v>
       </c>
       <c r="C74">
-        <v>5.234747844598644</v>
+        <v>47.58618222139864</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="C75">
-        <v>28.24163766811823</v>
+        <v>49.92096163166303</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>15</v>
       </c>
       <c r="C76">
-        <v>2.433117358258315</v>
+        <v>-33.68760634103941</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="C77">
-        <v>44.40002126304284</v>
+        <v>51.02085663123344</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>12</v>
       </c>
       <c r="C78">
-        <v>4.654213949818271</v>
+        <v>-9.73113692027205</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C79">
-        <v>43.19519096521711</v>
+        <v>52.19759362604437</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>13</v>
       </c>
       <c r="C80">
-        <v>3.863971997940453</v>
+        <v>-143.9014537636292</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>17.5</v>
       </c>
       <c r="C81">
-        <v>39.58536858001824</v>
+        <v>57.52687549965322</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="C82">
-        <v>13.83894832485208</v>
+        <v>47.81811641084614</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>14</v>
       </c>
       <c r="C83">
-        <v>3.906669835897262</v>
+        <v>-4.817035379265803</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>8.5</v>
       </c>
       <c r="C84">
-        <v>9.775660000448397</v>
+        <v>34.95991402736733</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -391,7 +391,7 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>-311.0140164047996</v>
+        <v>1.076808638923026</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -405,7 +405,7 @@
         <v>-1</v>
       </c>
       <c r="C3">
-        <v>47.93576665543328</v>
+        <v>45.79797922284006</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -419,7 +419,7 @@
         <v>3.5</v>
       </c>
       <c r="C4">
-        <v>45.67434478487716</v>
+        <v>28.64746799514484</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>16.5</v>
       </c>
       <c r="C5">
-        <v>50.20695066252448</v>
+        <v>38.43360070043748</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -447,7 +447,7 @@
         <v>13.5</v>
       </c>
       <c r="C6">
-        <v>-124.9056831711556</v>
+        <v>0.4191491438119215</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -461,7 +461,7 @@
         <v>17.5</v>
       </c>
       <c r="C7">
-        <v>50.42177329770627</v>
+        <v>48.7466616486445</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -475,7 +475,7 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>45.91364487333755</v>
+        <v>50.17519679206857</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>17.39730012321301</v>
+        <v>6.860673304384662</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>51.91968933858254</v>
+        <v>47.62247267528294</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>9.889975990560671</v>
+        <v>2.9143431779395</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -531,7 +531,7 @@
         <v>16.5</v>
       </c>
       <c r="C12">
-        <v>52.35389995045815</v>
+        <v>44.55804970451774</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -545,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>46.79428859010714</v>
+        <v>15.69007760551756</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -559,7 +559,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>57.27774523202547</v>
+        <v>38.63360198367355</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>4.5</v>
       </c>
       <c r="C15">
-        <v>49.38085539505631</v>
+        <v>13.28313977205711</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -587,7 +587,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-122.4677755988029</v>
+        <v>5.243536225857596</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -601,7 +601,7 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>42.07570831441517</v>
+        <v>4.901799413039114</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>49.32266682853091</v>
+        <v>47.94437906006922</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>45.26063042008125</v>
+        <v>44.8757804760245</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>-13.28640650534783</v>
+        <v>4.494534542965638</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>12.5</v>
       </c>
       <c r="C21">
-        <v>-121.9993281709149</v>
+        <v>0.8171940946498353</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -671,7 +671,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>22.8662889493846</v>
+        <v>8.390905143192327</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>15.5</v>
       </c>
       <c r="C23">
-        <v>-108.2569931704789</v>
+        <v>-2.179153621809107</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>46.8523921925017</v>
+        <v>45.6732256254234</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -713,7 +713,7 @@
         <v>15.5</v>
       </c>
       <c r="C25">
-        <v>60.61702603032315</v>
+        <v>40.85774315956358</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -727,7 +727,7 @@
         <v>16</v>
       </c>
       <c r="C26">
-        <v>51.63300157723616</v>
+        <v>42.04929195381864</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>15</v>
       </c>
       <c r="C27">
-        <v>59.15586519565485</v>
+        <v>35.30470105270706</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>-2</v>
       </c>
       <c r="C28">
-        <v>18.36776585041913</v>
+        <v>49.342471705178</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>5.5</v>
       </c>
       <c r="C29">
-        <v>46.12926467831397</v>
+        <v>7.106728368329456</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>14.5</v>
       </c>
       <c r="C30">
-        <v>-72.44157634709794</v>
+        <v>0.01197982509515327</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>14.5</v>
       </c>
       <c r="C31">
-        <v>59.15277353694521</v>
+        <v>7.77301864507659</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -811,7 +811,7 @@
         <v>-3</v>
       </c>
       <c r="C32">
-        <v>-79.78871381382444</v>
+        <v>57.66507498505791</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>13.5</v>
       </c>
       <c r="C33">
-        <v>-99.75947280973506</v>
+        <v>-0.8882107760905882</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>6.5</v>
       </c>
       <c r="C34">
-        <v>44.26166550146135</v>
+        <v>4.788200461419919</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>49.81697102333727</v>
+        <v>20.50307988615172</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>15</v>
       </c>
       <c r="C36">
-        <v>-131.9139565105916</v>
+        <v>-1.238810249017277</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>54.99811143247155</v>
+        <v>30.73104676165929</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>12</v>
       </c>
       <c r="C38">
-        <v>13.66763198550537</v>
+        <v>1.944067475462489</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>12</v>
       </c>
       <c r="C39">
-        <v>-67.01473053971131</v>
+        <v>2.12860847753295</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -923,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>53.91420511088696</v>
+        <v>35.32825623908026</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>13</v>
       </c>
       <c r="C41">
-        <v>-97.1634460275306</v>
+        <v>-0.2660550916823468</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>17.5</v>
       </c>
       <c r="C42">
-        <v>47.30536905539987</v>
+        <v>51.28911488208865</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>5</v>
       </c>
       <c r="C43">
-        <v>41.92775219450182</v>
+        <v>7.52967873947199</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>14</v>
       </c>
       <c r="C44">
-        <v>-151.7839972423608</v>
+        <v>-0.3333680337585747</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>7.5</v>
       </c>
       <c r="C45">
-        <v>46.38078335976608</v>
+        <v>5.540232538273685</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>12.5</v>
       </c>
       <c r="C46">
-        <v>-62.11941701078308</v>
+        <v>4.37821164881187</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>-1</v>
       </c>
       <c r="C47">
-        <v>-2.895023091926632</v>
+        <v>51.51313552876296</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>9.5</v>
       </c>
       <c r="C48">
-        <v>20.76174492033525</v>
+        <v>7.790414018084491</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>3.5</v>
       </c>
       <c r="C49">
-        <v>52.38900447304266</v>
+        <v>36.47171202151807</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>16.5</v>
       </c>
       <c r="C50">
-        <v>-92.438432591615</v>
+        <v>0.8595292167212421</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>30.83164372639654</v>
+        <v>9.366970244337779</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>56.33583442257328</v>
+        <v>52.76397631899449</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>21.33012669146565</v>
+        <v>6.40162290739778</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>16.5</v>
       </c>
       <c r="C54">
-        <v>73.0582712371999</v>
+        <v>40.61966179391406</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -1133,7 +1133,7 @@
         <v>7</v>
       </c>
       <c r="C55">
-        <v>49.36778619415478</v>
+        <v>5.590897475546072</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>16</v>
       </c>
       <c r="C56">
-        <v>-173.2276700694886</v>
+        <v>1.486904743985349</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>4.5</v>
       </c>
       <c r="C57">
-        <v>50.50541930789063</v>
+        <v>25.4645808527475</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>11.5</v>
       </c>
       <c r="C58">
-        <v>21.18276365293279</v>
+        <v>5.446225277937728</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>6</v>
       </c>
       <c r="C59">
-        <v>15.33548104640469</v>
+        <v>5.836073173358017</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>17</v>
       </c>
       <c r="C60">
-        <v>62.29704921123467</v>
+        <v>43.79588130004234</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>46.97959653241813</v>
+        <v>47.07038956950215</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>23.15617064570914</v>
+        <v>7.497531727867823</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>8</v>
       </c>
       <c r="C63">
-        <v>37.82186637114563</v>
+        <v>11.26824883317703</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>15.5</v>
       </c>
       <c r="C64">
-        <v>-69.40944556407797</v>
+        <v>1.413502699482351</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>15.5</v>
       </c>
       <c r="C65">
-        <v>0.6061422608814411</v>
+        <v>7.379819098226818</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -1287,7 +1287,7 @@
         <v>15</v>
       </c>
       <c r="C66">
-        <v>-53.97767549860455</v>
+        <v>2.194284814433146</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>-2</v>
       </c>
       <c r="C67">
-        <v>49.13894489167496</v>
+        <v>51.27816918399342</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>10.5</v>
       </c>
       <c r="C68">
-        <v>17.8461331585742</v>
+        <v>7.715491590182125</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>5.5</v>
       </c>
       <c r="C69">
-        <v>47.1429717702539</v>
+        <v>9.264989247106456</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>14.5</v>
       </c>
       <c r="C70">
-        <v>21.30148986983482</v>
+        <v>2.39549131296414</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>14.5</v>
       </c>
       <c r="C71">
-        <v>-90.31012330572202</v>
+        <v>1.966195363394149</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -1371,7 +1371,7 @@
         <v>-3</v>
       </c>
       <c r="C72">
-        <v>51.03577073084141</v>
+        <v>59.76628229343611</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>13.5</v>
       </c>
       <c r="C73">
-        <v>-34.55527824103726</v>
+        <v>3.239449416142193</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>6.5</v>
       </c>
       <c r="C74">
-        <v>47.58618222139864</v>
+        <v>5.234747844598644</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="C75">
-        <v>49.92096163166303</v>
+        <v>28.24163766811823</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>15</v>
       </c>
       <c r="C76">
-        <v>-33.68760634103941</v>
+        <v>2.433117358258315</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="C77">
-        <v>51.02085663123344</v>
+        <v>44.40002126304284</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>12</v>
       </c>
       <c r="C78">
-        <v>-9.73113692027205</v>
+        <v>4.654213949818271</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C79">
-        <v>52.19759362604437</v>
+        <v>43.19519096521711</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>13</v>
       </c>
       <c r="C80">
-        <v>-143.9014537636292</v>
+        <v>3.863971997940453</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>17.5</v>
       </c>
       <c r="C81">
-        <v>57.52687549965322</v>
+        <v>39.58536858001824</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="C82">
-        <v>47.81811641084614</v>
+        <v>13.83894832485208</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>14</v>
       </c>
       <c r="C83">
-        <v>-4.817035379265803</v>
+        <v>3.906669835897262</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>8.5</v>
       </c>
       <c r="C84">
-        <v>34.95991402736733</v>
+        <v>9.775660000448397</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
